--- a/Kostenplan.xlsx
+++ b/Kostenplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Github\Game-Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5578270-07DA-4004-92B2-FCA0AA0F8E7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9EA681-6536-4890-A56C-FAE8528D6E14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9504" yWindow="3348" windowWidth="17280" windowHeight="8964" xr2:uid="{0CA0F373-A1C4-44B5-9AD7-2ED83E9C4DE1}"/>
+    <workbookView xWindow="-9372" yWindow="2352" windowWidth="17280" windowHeight="8964" xr2:uid="{0CA0F373-A1C4-44B5-9AD7-2ED83E9C4DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -249,13 +249,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -575,7 +575,7 @@
   <dimension ref="A1:W92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,19 +587,19 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -616,15 +616,15 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -641,15 +641,15 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -666,23 +666,23 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -698,26 +698,26 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <f>SUM(C6+C12+C20+C24)</f>
-        <v>37.5</v>
-      </c>
-      <c r="D5" s="7">
+        <v>34</v>
+      </c>
+      <c r="D5" s="6">
         <f>SUM(D6+D12+D20+D24)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -733,26 +733,26 @@
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f>SUM(C7:C11)</f>
         <v>8.5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <f>SUM(D7:D11)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -768,22 +768,22 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>4</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -799,22 +799,22 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>3</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -830,22 +830,22 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>0.5</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -861,22 +861,22 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>0</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -892,22 +892,22 @@
       <c r="W10" s="1"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>1</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -923,26 +923,26 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <f>SUM(C13:C19)</f>
-        <v>29</v>
-      </c>
-      <c r="D12" s="7">
+        <v>23.5</v>
+      </c>
+      <c r="D12" s="6">
         <f>SUM(D13:D19)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -958,22 +958,22 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="7">
-        <v>13</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="C13" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -989,22 +989,22 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="7">
-        <v>16</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="C14" s="6">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1020,20 +1020,22 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="C15" s="6">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1049,20 +1051,22 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="C16" s="6">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1078,20 +1082,20 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1107,20 +1111,20 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1136,20 +1140,20 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1165,26 +1169,26 @@
       <c r="W19" s="1"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <f>SUM(C21:C23)</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="6">
         <f>SUM(D21:D23)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1200,20 +1204,22 @@
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="C21" s="6">
+        <v>2</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1229,20 +1235,20 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1258,20 +1264,20 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1287,26 +1293,26 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <f>SUM(C25:C27)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <f>SUM(D25:D27)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -1322,20 +1328,20 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1351,20 +1357,20 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -1380,20 +1386,20 @@
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1409,16 +1415,16 @@
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -1434,14 +1440,14 @@
       <c r="W28" s="1"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -1457,15 +1463,15 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -1481,15 +1487,15 @@
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -1505,21 +1511,21 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -1535,16 +1541,16 @@
       <c r="W32" s="1"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -1560,16 +1566,16 @@
       <c r="W33" s="1"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -1585,13 +1591,13 @@
       <c r="W34" s="1"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
+      <c r="A35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -1607,13 +1613,13 @@
       <c r="W35" s="1"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
+      <c r="A36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -1630,12 +1636,12 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -1651,16 +1657,16 @@
       <c r="W37" s="1"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -1676,16 +1682,16 @@
       <c r="W38" s="1"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -1701,16 +1707,16 @@
       <c r="W39" s="1"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -1726,16 +1732,16 @@
       <c r="W40" s="1"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -1751,16 +1757,16 @@
       <c r="W41" s="1"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -1776,16 +1782,16 @@
       <c r="W42" s="1"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -1801,16 +1807,16 @@
       <c r="W43" s="1"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>

--- a/Kostenplan.xlsx
+++ b/Kostenplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Github\Game-Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9EA681-6536-4890-A56C-FAE8528D6E14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35155FD0-F4A4-4FA7-AE5A-8B980D71D860}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9372" yWindow="2352" windowWidth="17280" windowHeight="8964" xr2:uid="{0CA0F373-A1C4-44B5-9AD7-2ED83E9C4DE1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0CA0F373-A1C4-44B5-9AD7-2ED83E9C4DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +221,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -255,7 +267,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -574,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF12130-C44D-4B62-B825-A2FB79B26328}">
   <dimension ref="A1:W92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,24 +612,24 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="1"/>
@@ -616,20 +641,20 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="1"/>
@@ -641,20 +666,20 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="1"/>
@@ -666,28 +691,28 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="1"/>
@@ -701,28 +726,34 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="11">
         <f>SUM(C6+C12+C20+C24)</f>
-        <v>34</v>
-      </c>
-      <c r="D5" s="6">
+        <v>51.5</v>
+      </c>
+      <c r="D5" s="11">
         <f>SUM(D6+D12+D20+D24)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="E5" s="11">
+        <f>SUM(E6+E12+E20+E24)</f>
+        <v>51.5</v>
+      </c>
+      <c r="F5" s="11">
+        <f>SUM(F6+F12+F20+F24)</f>
+        <v>1030</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="1"/>
@@ -736,28 +767,34 @@
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="10">
         <f>SUM(C7:C11)</f>
-        <v>8.5</v>
-      </c>
-      <c r="D6" s="6">
+        <v>17</v>
+      </c>
+      <c r="D6" s="10">
         <f>SUM(D7:D11)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="E6" s="10">
+        <f>SUM(E7:E11)</f>
+        <v>17</v>
+      </c>
+      <c r="F6" s="10">
+        <f>SUM(F7:F11)</f>
+        <v>340</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="1"/>
@@ -771,24 +808,30 @@
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="6">
         <v>4</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="E7" s="6">
+        <f>C7+D7</f>
+        <v>4</v>
+      </c>
+      <c r="F7" s="6">
+        <f>E7*$C$29</f>
+        <v>80</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="1"/>
@@ -802,24 +845,30 @@
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="6">
         <v>3</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="E8" s="6">
+        <f t="shared" ref="E8:E11" si="0">C8+D8</f>
+        <v>3</v>
+      </c>
+      <c r="F8" s="6">
+        <f>E8*$C$29</f>
+        <v>60</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="1"/>
@@ -833,24 +882,31 @@
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="6">
-        <v>0.5</v>
+        <f>0.5+1+1+1+1+0.5+1+2</f>
+        <v>8</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F9" s="6">
+        <f>E9*$C$29</f>
+        <v>160</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="1"/>
@@ -864,24 +920,30 @@
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <f>E10*$C$29</f>
+        <v>20</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="1"/>
@@ -895,24 +957,30 @@
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <f>E11*$C$29</f>
+        <v>20</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="1"/>
@@ -926,28 +994,34 @@
       <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="10">
         <f>SUM(C13:C19)</f>
-        <v>23.5</v>
-      </c>
-      <c r="D12" s="6">
+        <v>24</v>
+      </c>
+      <c r="D12" s="10">
         <f>SUM(D13:D19)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="E12" s="10">
+        <f>SUM(E13:E19)</f>
+        <v>24</v>
+      </c>
+      <c r="F12" s="10">
+        <f>SUM(F13:F19)</f>
+        <v>480</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="1"/>
@@ -961,24 +1035,30 @@
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="6">
         <v>7.5</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="E13" s="6">
+        <f t="shared" ref="E13:E19" si="1">SUM(C13:D13)</f>
+        <v>7.5</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" ref="F13:F19" si="2">E13*$C$29</f>
+        <v>150</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="1"/>
@@ -992,24 +1072,30 @@
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="6">
         <v>6</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="E14" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="1"/>
@@ -1023,24 +1109,30 @@
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="6">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="E15" s="6">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="1"/>
@@ -1054,24 +1146,30 @@
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="E16" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="1"/>
@@ -1085,22 +1183,30 @@
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="6">
+        <v>3</v>
+      </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="E17" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="1"/>
@@ -1114,22 +1220,30 @@
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="6">
+        <v>2</v>
+      </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="E18" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="1"/>
@@ -1143,22 +1257,30 @@
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="E19" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="1"/>
@@ -1172,28 +1294,34 @@
       <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="10">
         <f>SUM(C21:C23)</f>
-        <v>2</v>
-      </c>
-      <c r="D20" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="D20" s="10">
         <f>SUM(D21:D23)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="E20" s="10">
+        <f>SUM(E21:E23)</f>
+        <v>7.5</v>
+      </c>
+      <c r="F20" s="10">
+        <f>SUM(F21:F23)</f>
+        <v>150</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="1"/>
@@ -1207,24 +1335,30 @@
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="E21" s="6">
+        <f>SUM(C21:D21)</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <f>E21*$C$29</f>
+        <v>20</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="1"/>
@@ -1238,22 +1372,30 @@
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="6">
+        <v>5.5</v>
+      </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="E22" s="6">
+        <f t="shared" ref="E22:E23" si="3">SUM(C22:D22)</f>
+        <v>5.5</v>
+      </c>
+      <c r="F22" s="6">
+        <f>E22*$C$29</f>
+        <v>110</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="1"/>
@@ -1267,22 +1409,30 @@
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="E23" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="6">
+        <f>E23*$C$29</f>
+        <v>20</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="1"/>
@@ -1296,28 +1446,34 @@
       <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="10">
         <f>SUM(C25:C27)</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="6">
+        <v>3</v>
+      </c>
+      <c r="D24" s="10">
         <f>SUM(D25:D27)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="E24" s="10">
+        <f>SUM(E25:E27)</f>
+        <v>3</v>
+      </c>
+      <c r="F24" s="10">
+        <f>SUM(F25:F27)</f>
+        <v>60</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="1"/>
@@ -1331,22 +1487,30 @@
       <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="6">
+        <v>1.5</v>
+      </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="E25" s="6">
+        <f>SUM(C25:D25)</f>
+        <v>1.5</v>
+      </c>
+      <c r="F25" s="6">
+        <f>E25*$C$29</f>
+        <v>30</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="1"/>
@@ -1360,22 +1524,30 @@
       <c r="A26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="6">
+        <v>1.5</v>
+      </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="E26" s="6">
+        <f t="shared" ref="E26:E27" si="4">SUM(C26:D26)</f>
+        <v>1.5</v>
+      </c>
+      <c r="F26" s="6">
+        <f>E26*$C$29</f>
+        <v>30</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="1"/>
@@ -1389,22 +1561,28 @@
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="E27" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <f>E27*$C$29</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="1"/>
@@ -1416,20 +1594,20 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="1"/>
@@ -1440,19 +1618,26 @@
       <c r="W28" s="1"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="B29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="1"/>
@@ -1463,20 +1648,20 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="1"/>
@@ -1487,20 +1672,20 @@
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="1"/>
@@ -1511,26 +1696,17 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B32" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="1"/>
@@ -1542,20 +1718,20 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="1"/>
@@ -1567,20 +1743,20 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="1"/>
@@ -1592,17 +1768,20 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="1"/>
@@ -1614,17 +1793,20 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="1"/>
@@ -1636,17 +1818,20 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="1"/>
@@ -1658,20 +1843,20 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="1"/>
@@ -1683,20 +1868,20 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="1"/>

--- a/Kostenplan.xlsx
+++ b/Kostenplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Github\Game-Information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\GitHub\Game-Theorie\Game-Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35155FD0-F4A4-4FA7-AE5A-8B980D71D860}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1F724C-DF6F-41EE-8291-95B8C9F4C4D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0CA0F373-A1C4-44B5-9AD7-2ED83E9C4DE1}"/>
+    <workbookView xWindow="19176" yWindow="4140" windowWidth="7656" windowHeight="6996" xr2:uid="{0CA0F373-A1C4-44B5-9AD7-2ED83E9C4DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -600,7 +599,7 @@
   <dimension ref="A1:W92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,15 +734,15 @@
       </c>
       <c r="D5" s="11">
         <f>SUM(D6+D12+D20+D24)</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E5" s="11">
         <f>SUM(E6+E12+E20+E24)</f>
-        <v>51.5</v>
+        <v>95.5</v>
       </c>
       <c r="F5" s="11">
         <f>SUM(F6+F12+F20+F24)</f>
-        <v>1030</v>
+        <v>1910</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -776,15 +775,15 @@
       </c>
       <c r="D6" s="10">
         <f>SUM(D7:D11)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E6" s="10">
         <f>SUM(E7:E11)</f>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F6" s="10">
         <f>SUM(F7:F11)</f>
-        <v>340</v>
+        <v>640</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -814,14 +813,16 @@
       <c r="C7" s="6">
         <v>4</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6">
+        <v>4</v>
+      </c>
       <c r="E7" s="6">
         <f>C7+D7</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F7" s="6">
         <f>E7*$C$29</f>
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -851,14 +852,16 @@
       <c r="C8" s="6">
         <v>3</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6">
+        <v>5</v>
+      </c>
       <c r="E8" s="6">
         <f t="shared" ref="E8:E11" si="0">C8+D8</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F8" s="6">
         <f>E8*$C$29</f>
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -889,14 +892,16 @@
         <f>0.5+1+1+1+1+0.5+1+2</f>
         <v>8</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6">
+        <v>4</v>
+      </c>
       <c r="E9" s="6">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F9" s="6">
         <f>E9*$C$29</f>
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -926,14 +931,16 @@
       <c r="C10" s="6">
         <v>1</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
       <c r="E10" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="6">
         <f>E10*$C$29</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -963,14 +970,16 @@
       <c r="C11" s="6">
         <v>1</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
       <c r="E11" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="6">
         <f>E11*$C$29</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -1003,15 +1012,15 @@
       </c>
       <c r="D12" s="10">
         <f>SUM(D13:D19)</f>
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="E12" s="10">
         <f>SUM(E13:E19)</f>
-        <v>24</v>
+        <v>47.5</v>
       </c>
       <c r="F12" s="10">
         <f>SUM(F13:F19)</f>
-        <v>480</v>
+        <v>950</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1041,14 +1050,16 @@
       <c r="C13" s="6">
         <v>7.5</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6">
+        <v>17</v>
+      </c>
       <c r="E13" s="6">
         <f t="shared" ref="E13:E19" si="1">SUM(C13:D13)</f>
-        <v>7.5</v>
+        <v>24.5</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" ref="F13:F19" si="2">E13*$C$29</f>
-        <v>150</v>
+        <v>490</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -1078,14 +1089,16 @@
       <c r="C14" s="6">
         <v>6</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6">
+        <v>3</v>
+      </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -1115,14 +1128,16 @@
       <c r="C15" s="6">
         <v>3.5</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
       <c r="E15" s="6">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -1152,14 +1167,16 @@
       <c r="C16" s="6">
         <v>1</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="6">
+        <v>0.5</v>
+      </c>
       <c r="E16" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -1189,14 +1206,16 @@
       <c r="C17" s="6">
         <v>3</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6">
+        <v>0.5</v>
+      </c>
       <c r="E17" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -1226,14 +1245,16 @@
       <c r="C18" s="6">
         <v>2</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="6">
+        <v>0.5</v>
+      </c>
       <c r="E18" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -1263,14 +1284,16 @@
       <c r="C19" s="6">
         <v>1</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
       <c r="E19" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1303,15 +1326,15 @@
       </c>
       <c r="D20" s="10">
         <f>SUM(D21:D23)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E20" s="10">
         <f>SUM(E21:E23)</f>
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="F20" s="10">
         <f>SUM(F21:F23)</f>
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -1341,14 +1364,16 @@
       <c r="C21" s="6">
         <v>1</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="6">
+        <v>0.5</v>
+      </c>
       <c r="E21" s="6">
         <f>SUM(C21:D21)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F21" s="6">
         <f>E21*$C$29</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -1378,14 +1403,16 @@
       <c r="C22" s="6">
         <v>5.5</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="6">
+        <v>2</v>
+      </c>
       <c r="E22" s="6">
         <f t="shared" ref="E22:E23" si="3">SUM(C22:D22)</f>
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="F22" s="6">
         <f>E22*$C$29</f>
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -1415,14 +1442,16 @@
       <c r="C23" s="6">
         <v>1</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
       <c r="E23" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="6">
         <f>E23*$C$29</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -1455,15 +1484,15 @@
       </c>
       <c r="D24" s="10">
         <f>SUM(D25:D27)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" s="10">
         <f>SUM(E25:E27)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F24" s="10">
         <f>SUM(F25:F27)</f>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -1493,14 +1522,16 @@
       <c r="C25" s="6">
         <v>1.5</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="6">
+        <v>1</v>
+      </c>
       <c r="E25" s="6">
         <f>SUM(C25:D25)</f>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F25" s="6">
         <f>E25*$C$29</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -1530,14 +1561,16 @@
       <c r="C26" s="6">
         <v>1.5</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
       <c r="E26" s="6">
         <f t="shared" ref="E26:E27" si="4">SUM(C26:D26)</f>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F26" s="6">
         <f>E26*$C$29</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>

--- a/Kostenplan.xlsx
+++ b/Kostenplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\GitHub\Game-Theorie\Game-Information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Github\Game-Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1F724C-DF6F-41EE-8291-95B8C9F4C4D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F66AFBF-7A42-48A3-8A0D-BE4DE0C48F1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19176" yWindow="4140" windowWidth="7656" windowHeight="6996" xr2:uid="{0CA0F373-A1C4-44B5-9AD7-2ED83E9C4DE1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0CA0F373-A1C4-44B5-9AD7-2ED83E9C4DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF12130-C44D-4B62-B825-A2FB79B26328}">
   <dimension ref="A1:W92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,7 +730,7 @@
       </c>
       <c r="C5" s="11">
         <f>SUM(C6+C12+C20+C24)</f>
-        <v>51.5</v>
+        <v>55.5</v>
       </c>
       <c r="D5" s="11">
         <f>SUM(D6+D12+D20+D24)</f>
@@ -738,11 +738,11 @@
       </c>
       <c r="E5" s="11">
         <f>SUM(E6+E12+E20+E24)</f>
-        <v>95.5</v>
+        <v>99.5</v>
       </c>
       <c r="F5" s="11">
         <f>SUM(F6+F12+F20+F24)</f>
-        <v>1910</v>
+        <v>1990</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="C24" s="10">
         <f>SUM(C25:C27)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D24" s="10">
         <f>SUM(D25:D27)</f>
@@ -1488,11 +1488,11 @@
       </c>
       <c r="E24" s="10">
         <f>SUM(E25:E27)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F24" s="10">
         <f>SUM(F25:F27)</f>
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -1597,15 +1597,17 @@
       <c r="B27" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="6">
+        <v>4</v>
+      </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F27" s="6">
         <f>E27*$C$29</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>

--- a/Kostenplan.xlsx
+++ b/Kostenplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Github\Game-Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F66AFBF-7A42-48A3-8A0D-BE4DE0C48F1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07D11BE-33A3-401E-94B7-BEFACE550F04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0CA0F373-A1C4-44B5-9AD7-2ED83E9C4DE1}"/>
+    <workbookView xWindow="3816" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{0CA0F373-A1C4-44B5-9AD7-2ED83E9C4DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF12130-C44D-4B62-B825-A2FB79B26328}">
   <dimension ref="A1:W92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,19 +730,19 @@
       </c>
       <c r="C5" s="11">
         <f>SUM(C6+C12+C20+C24)</f>
-        <v>55.5</v>
+        <v>51</v>
       </c>
       <c r="D5" s="11">
         <f>SUM(D6+D12+D20+D24)</f>
-        <v>44</v>
+        <v>39.5</v>
       </c>
       <c r="E5" s="11">
         <f>SUM(E6+E12+E20+E24)</f>
-        <v>99.5</v>
+        <v>90.5</v>
       </c>
       <c r="F5" s="11">
         <f>SUM(F6+F12+F20+F24)</f>
-        <v>1990</v>
+        <v>1810</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -771,19 +771,19 @@
       </c>
       <c r="C6" s="10">
         <f>SUM(C7:C11)</f>
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="D6" s="10">
         <f>SUM(D7:D11)</f>
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="E6" s="10">
         <f>SUM(E7:E11)</f>
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F6" s="10">
         <f>SUM(F7:F11)</f>
-        <v>640</v>
+        <v>460</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -811,18 +811,18 @@
         <v>30</v>
       </c>
       <c r="C7" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" s="6">
         <f>C7+D7</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F7" s="6">
         <f>E7*$C$29</f>
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -929,18 +929,18 @@
         <v>33</v>
       </c>
       <c r="C10" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" s="6">
         <f>E10*$C$29</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -968,18 +968,18 @@
         <v>34</v>
       </c>
       <c r="C11" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D11" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="6">
         <f>E11*$C$29</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>

--- a/Kostenplan.xlsx
+++ b/Kostenplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Github\Game-Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07D11BE-33A3-401E-94B7-BEFACE550F04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04CE09D-C600-4FFE-A448-672F98B0BF55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3816" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{0CA0F373-A1C4-44B5-9AD7-2ED83E9C4DE1}"/>
+    <workbookView xWindow="0" yWindow="1872" windowWidth="17280" windowHeight="8964" xr2:uid="{0CA0F373-A1C4-44B5-9AD7-2ED83E9C4DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>1.1</t>
   </si>
@@ -158,9 +158,6 @@
     <t>Hindernisse</t>
   </si>
   <si>
-    <t>Items</t>
-  </si>
-  <si>
     <t>Animations</t>
   </si>
   <si>
@@ -189,6 +186,15 @@
   </si>
   <si>
     <t>Dokumentation erstellen</t>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t>Mechanics programmiert</t>
+  </si>
+  <si>
+    <t>Items (Leben, Diamanten)</t>
   </si>
 </sst>
 </file>
@@ -248,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -277,6 +283,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -596,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF12130-C44D-4B62-B825-A2FB79B26328}">
-  <dimension ref="A1:W92"/>
+  <dimension ref="A1:W93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,13 +620,13 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="12"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -640,9 +649,9 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -665,9 +674,9 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -690,7 +699,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="12"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
@@ -729,20 +738,20 @@
         <v>28</v>
       </c>
       <c r="C5" s="11">
-        <f>SUM(C6+C12+C20+C24)</f>
-        <v>51</v>
+        <f>SUM(C6+C12+C20+C25)</f>
+        <v>63</v>
       </c>
       <c r="D5" s="11">
-        <f>SUM(D6+D12+D20+D24)</f>
-        <v>39.5</v>
+        <f>SUM(D6+D12+D20+D25)</f>
+        <v>38</v>
       </c>
       <c r="E5" s="11">
-        <f>SUM(E6+E12+E20+E24)</f>
-        <v>90.5</v>
+        <f>SUM(E6+E12+E20+E25)</f>
+        <v>97</v>
       </c>
       <c r="F5" s="11">
-        <f>SUM(F6+F12+F20+F24)</f>
-        <v>1810</v>
+        <f>SUM(F6+F12+F20+F25)</f>
+        <v>1940</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -771,19 +780,19 @@
       </c>
       <c r="C6" s="10">
         <f>SUM(C7:C11)</f>
-        <v>12.5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="10">
         <f>SUM(D7:D11)</f>
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="E6" s="10">
         <f>SUM(E7:E11)</f>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F6" s="10">
         <f>SUM(F7:F11)</f>
-        <v>460</v>
+        <v>240</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -811,18 +820,18 @@
         <v>30</v>
       </c>
       <c r="C7" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="6">
         <f>C7+D7</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="6">
-        <f>E7*$C$29</f>
-        <v>40</v>
+        <f>E7*$C$30</f>
+        <v>0</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -850,18 +859,18 @@
         <v>31</v>
       </c>
       <c r="C8" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="6">
         <v>5</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" ref="E8:E11" si="0">C8+D8</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="6">
-        <f>E8*$C$29</f>
-        <v>160</v>
+        <f>E8*$C$30</f>
+        <v>140</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -889,19 +898,18 @@
         <v>32</v>
       </c>
       <c r="C9" s="6">
-        <f>0.5+1+1+1+1+0.5+1+2</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D9" s="6">
         <v>4</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F9" s="6">
-        <f>E9*$C$29</f>
-        <v>240</v>
+        <f>E9*$C$30</f>
+        <v>100</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -939,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="6">
-        <f>E10*$C$29</f>
+        <f>E10*$C$30</f>
         <v>0</v>
       </c>
       <c r="G10" s="6"/>
@@ -968,18 +976,18 @@
         <v>34</v>
       </c>
       <c r="C11" s="6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D11" s="6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="6">
-        <f>E11*$C$29</f>
-        <v>20</v>
+        <f>E11*$C$30</f>
+        <v>0</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -1008,7 +1016,7 @@
       </c>
       <c r="C12" s="10">
         <f>SUM(C13:C19)</f>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D12" s="10">
         <f>SUM(D13:D19)</f>
@@ -1016,11 +1024,11 @@
       </c>
       <c r="E12" s="10">
         <f>SUM(E13:E19)</f>
-        <v>47.5</v>
+        <v>42.5</v>
       </c>
       <c r="F12" s="10">
         <f>SUM(F13:F19)</f>
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1058,7 +1066,7 @@
         <v>24.5</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" ref="F13:F19" si="2">E13*$C$29</f>
+        <f t="shared" ref="F13:F19" si="2">E13*$C$30</f>
         <v>490</v>
       </c>
       <c r="G13" s="6"/>
@@ -1087,18 +1095,18 @@
         <v>39</v>
       </c>
       <c r="C14" s="6">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="D14" s="6">
         <v>3</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -1162,21 +1170,21 @@
         <v>10</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C16" s="6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D16" s="6">
         <v>0.5</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -1201,7 +1209,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="6">
         <v>3</v>
@@ -1240,7 +1248,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="6">
         <v>2</v>
@@ -1279,7 +1287,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="6">
         <v>1</v>
@@ -1318,23 +1326,23 @@
         <v>14</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="10">
-        <f>SUM(C21:C23)</f>
-        <v>7.5</v>
+        <f>SUM(C21:C24)</f>
+        <v>13</v>
       </c>
       <c r="D20" s="10">
-        <f>SUM(D21:D23)</f>
+        <f>SUM(D21:D24)</f>
         <v>3.5</v>
       </c>
       <c r="E20" s="10">
-        <f>SUM(E21:E23)</f>
-        <v>11</v>
+        <f>SUM(E21:E24)</f>
+        <v>12.5</v>
       </c>
       <c r="F20" s="10">
-        <f>SUM(F21:F23)</f>
-        <v>220</v>
+        <f>SUM(F21:F24)</f>
+        <v>250</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -1359,7 +1367,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -1372,7 +1380,7 @@
         <v>1.5</v>
       </c>
       <c r="F21" s="6">
-        <f>E21*$C$29</f>
+        <f>E21*$C$30</f>
         <v>30</v>
       </c>
       <c r="G21" s="6"/>
@@ -1395,29 +1403,21 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="D22" s="6">
-        <v>2</v>
-      </c>
-      <c r="E22" s="6">
-        <f t="shared" ref="E22:E23" si="3">SUM(C22:D22)</f>
-        <v>7.5</v>
-      </c>
-      <c r="F22" s="6">
-        <f>E22*$C$29</f>
-        <v>150</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="12">
+        <v>4</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
@@ -1434,24 +1434,24 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C23" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D23" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" ref="E23:E24" si="3">SUM(C23:D23)</f>
+        <v>9</v>
       </c>
       <c r="F23" s="6">
-        <f>E23*$C$29</f>
-        <v>40</v>
+        <f>E23*$C$30</f>
+        <v>180</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -1472,27 +1472,25 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="10">
-        <f>SUM(C25:C27)</f>
-        <v>7</v>
-      </c>
-      <c r="D24" s="10">
-        <f>SUM(D25:D27)</f>
+      <c r="A24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E24" s="10">
-        <f>SUM(E25:E27)</f>
-        <v>9</v>
-      </c>
-      <c r="F24" s="10">
-        <f>SUM(F25:F27)</f>
-        <v>180</v>
+      <c r="F24" s="6">
+        <f>E24*$C$30</f>
+        <v>40</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -1513,25 +1511,27 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
-      <c r="E25" s="6">
-        <f>SUM(C25:D25)</f>
-        <v>2.5</v>
-      </c>
-      <c r="F25" s="6">
-        <f>E25*$C$29</f>
-        <v>50</v>
+      <c r="A25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="10">
+        <f>SUM(C26:C28)</f>
+        <v>28</v>
+      </c>
+      <c r="D25" s="10">
+        <f>SUM(D26:D28)</f>
+        <v>2</v>
+      </c>
+      <c r="E25" s="10">
+        <f>SUM(E26:E28)</f>
+        <v>30</v>
+      </c>
+      <c r="F25" s="10">
+        <f>SUM(F26:F28)</f>
+        <v>600</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -1553,24 +1553,24 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="6">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="D26" s="6">
         <v>1</v>
       </c>
       <c r="E26" s="6">
-        <f t="shared" ref="E26:E27" si="4">SUM(C26:D26)</f>
-        <v>2.5</v>
+        <f>SUM(C26:D26)</f>
+        <v>8.5</v>
       </c>
       <c r="F26" s="6">
-        <f>E26*$C$29</f>
-        <v>50</v>
+        <f>E26*$C$30</f>
+        <v>170</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -1592,22 +1592,24 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C27" s="6">
-        <v>4</v>
-      </c>
-      <c r="D27" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
       <c r="E27" s="6">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" ref="E27:E28" si="4">SUM(C27:D27)</f>
+        <v>10</v>
       </c>
       <c r="F27" s="6">
-        <f>E27*$C$29</f>
-        <v>80</v>
+        <f>E27*$C$30</f>
+        <v>200</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -1628,12 +1630,24 @@
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="6">
+        <v>11.5</v>
+      </c>
       <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="E28" s="6">
+        <f t="shared" si="4"/>
+        <v>11.5</v>
+      </c>
+      <c r="F28" s="6">
+        <f>E28*$C$30</f>
+        <v>230</v>
+      </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -1653,15 +1667,10 @@
       <c r="W28" s="1"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B29" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="A29" s="4"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -1683,9 +1692,15 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="B30" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -1731,6 +1746,9 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -1752,10 +1770,6 @@
       <c r="W32" s="1"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -1803,9 +1817,9 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -1852,7 +1866,7 @@
       <c r="W36" s="1"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
+      <c r="A37" s="4"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -1877,10 +1891,10 @@
       <c r="W37" s="1"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -1928,20 +1942,20 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="1"/>
@@ -2052,16 +2066,16 @@
       <c r="W44" s="1"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -2702,23 +2716,23 @@
       <c r="W70" s="1"/>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
@@ -3251,6 +3265,31 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
     </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:B4"/>

--- a/Kostenplan.xlsx
+++ b/Kostenplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Github\Game-Information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\GitHub\Game-Theorie\Game-Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04CE09D-C600-4FFE-A448-672F98B0BF55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE353D4-4D9E-4789-B968-0E93F88D446D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1872" windowWidth="17280" windowHeight="8964" xr2:uid="{0CA0F373-A1C4-44B5-9AD7-2ED83E9C4DE1}"/>
+    <workbookView xWindow="0" yWindow="3588" windowWidth="7656" windowHeight="6996" xr2:uid="{0CA0F373-A1C4-44B5-9AD7-2ED83E9C4DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF12130-C44D-4B62-B825-A2FB79B26328}">
   <dimension ref="A1:W93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,15 +743,15 @@
       </c>
       <c r="D5" s="11">
         <f>SUM(D6+D12+D20+D25)</f>
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E5" s="11">
         <f>SUM(E6+E12+E20+E25)</f>
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="F5" s="11">
         <f>SUM(F6+F12+F20+F25)</f>
-        <v>1940</v>
+        <v>2420</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -1020,15 +1020,15 @@
       </c>
       <c r="D12" s="10">
         <f>SUM(D13:D19)</f>
-        <v>23.5</v>
+        <v>25.5</v>
       </c>
       <c r="E12" s="10">
         <f>SUM(E13:E19)</f>
-        <v>42.5</v>
+        <v>44.5</v>
       </c>
       <c r="F12" s="10">
         <f>SUM(F13:F19)</f>
-        <v>850</v>
+        <v>890</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1176,15 +1176,16 @@
         <v>1.5</v>
       </c>
       <c r="D16" s="6">
-        <v>0.5</v>
+        <f>0.5+0.5+0.5+1</f>
+        <v>2.5</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -1334,15 +1335,15 @@
       </c>
       <c r="D20" s="10">
         <f>SUM(D21:D24)</f>
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="E20" s="10">
         <f>SUM(E21:E24)</f>
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="F20" s="10">
         <f>SUM(F21:F24)</f>
-        <v>250</v>
+        <v>390</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -1411,9 +1412,17 @@
       <c r="C22" s="12">
         <v>4</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="D22" s="12">
+        <v>2</v>
+      </c>
+      <c r="E22" s="12">
+        <f>SUM(C22:D22)</f>
+        <v>6</v>
+      </c>
+      <c r="F22" s="12">
+        <f>E22*$C$30</f>
+        <v>120</v>
+      </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
@@ -1443,15 +1452,16 @@
         <v>7</v>
       </c>
       <c r="D23" s="6">
-        <v>2</v>
+        <f>2+1</f>
+        <v>3</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" ref="E23:E24" si="3">SUM(C23:D23)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" s="6">
         <f>E23*$C$30</f>
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -1523,15 +1533,15 @@
       </c>
       <c r="D25" s="10">
         <f>SUM(D26:D28)</f>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E25" s="10">
         <f>SUM(E26:E28)</f>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F25" s="10">
         <f>SUM(F26:F28)</f>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -1562,15 +1572,15 @@
         <v>7.5</v>
       </c>
       <c r="D26" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(C26:D26)</f>
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="F26" s="6">
         <f>E26*$C$30</f>
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -1601,15 +1611,15 @@
         <v>9</v>
       </c>
       <c r="D27" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E27" s="6">
         <f t="shared" ref="E27:E28" si="4">SUM(C27:D27)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F27" s="6">
         <f>E27*$C$30</f>
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -1639,14 +1649,17 @@
       <c r="C28" s="6">
         <v>11.5</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="6">
+        <f>2+1+1+1+1+2+1</f>
+        <v>9</v>
+      </c>
       <c r="E28" s="6">
         <f t="shared" si="4"/>
-        <v>11.5</v>
+        <v>20.5</v>
       </c>
       <c r="F28" s="6">
         <f>E28*$C$30</f>
-        <v>230</v>
+        <v>410</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>

--- a/Kostenplan.xlsx
+++ b/Kostenplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\GitHub\Game-Theorie\Game-Information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Github\Game-Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE353D4-4D9E-4789-B968-0E93F88D446D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6C70C3-DF6D-435A-8CE6-1839E93B7AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3588" windowWidth="7656" windowHeight="6996" xr2:uid="{0CA0F373-A1C4-44B5-9AD7-2ED83E9C4DE1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0CA0F373-A1C4-44B5-9AD7-2ED83E9C4DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>1.1</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>Stundensätze Personal in Euro</t>
-  </si>
-  <si>
-    <t>20</t>
   </si>
   <si>
     <t>Map</t>
@@ -608,7 +605,7 @@
   <dimension ref="A1:W93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,7 +748,7 @@
       </c>
       <c r="F5" s="11">
         <f>SUM(F6+F12+F20+F25)</f>
-        <v>2420</v>
+        <v>6050</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -780,7 +777,7 @@
       </c>
       <c r="C6" s="10">
         <f>SUM(C7:C11)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" s="10">
         <f>SUM(D7:D11)</f>
@@ -788,11 +785,11 @@
       </c>
       <c r="E6" s="10">
         <f>SUM(E7:E11)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" s="10">
         <f>SUM(F7:F11)</f>
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -820,18 +817,18 @@
         <v>30</v>
       </c>
       <c r="C7" s="6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="6">
         <f>C7+D7</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F7" s="6">
         <f>E7*$C$30</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -859,18 +856,18 @@
         <v>31</v>
       </c>
       <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
         <v>2</v>
-      </c>
-      <c r="D8" s="6">
-        <v>5</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" ref="E8:E11" si="0">C8+D8</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F8" s="6">
         <f>E8*$C$30</f>
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -898,18 +895,18 @@
         <v>32</v>
       </c>
       <c r="C9" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D9" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="F9" s="6">
         <f>E9*$C$30</f>
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -940,15 +937,15 @@
         <v>0</v>
       </c>
       <c r="D10" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" s="6">
         <f>E10*$C$30</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -976,18 +973,18 @@
         <v>34</v>
       </c>
       <c r="C11" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11" s="6">
         <f>E11*$C$30</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -1012,7 +1009,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="10">
         <f>SUM(C13:C19)</f>
@@ -1028,7 +1025,7 @@
       </c>
       <c r="F12" s="10">
         <f>SUM(F13:F19)</f>
-        <v>890</v>
+        <v>2225</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1053,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="6">
         <v>7.5</v>
@@ -1067,7 +1064,7 @@
       </c>
       <c r="F13" s="6">
         <f t="shared" ref="F13:F19" si="2">E13*$C$30</f>
-        <v>490</v>
+        <v>1225</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -1092,7 +1089,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="6">
         <v>0.5</v>
@@ -1106,7 +1103,7 @@
       </c>
       <c r="F14" s="6">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -1131,7 +1128,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="6">
         <v>3.5</v>
@@ -1145,7 +1142,7 @@
       </c>
       <c r="F15" s="6">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -1170,7 +1167,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="6">
         <v>1.5</v>
@@ -1185,7 +1182,7 @@
       </c>
       <c r="F16" s="6">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -1210,7 +1207,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="6">
         <v>3</v>
@@ -1224,7 +1221,7 @@
       </c>
       <c r="F17" s="6">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -1249,7 +1246,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="6">
         <v>2</v>
@@ -1263,7 +1260,7 @@
       </c>
       <c r="F18" s="6">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -1288,7 +1285,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="6">
         <v>1</v>
@@ -1302,7 +1299,7 @@
       </c>
       <c r="F19" s="6">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1327,11 +1324,11 @@
         <v>14</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="10">
         <f>SUM(C21:C24)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D20" s="10">
         <f>SUM(D21:D24)</f>
@@ -1339,11 +1336,11 @@
       </c>
       <c r="E20" s="10">
         <f>SUM(E21:E24)</f>
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="F20" s="10">
         <f>SUM(F21:F24)</f>
-        <v>390</v>
+        <v>875</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -1368,7 +1365,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -1382,7 +1379,7 @@
       </c>
       <c r="F21" s="6">
         <f>E21*$C$30</f>
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -1404,10 +1401,10 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>52</v>
       </c>
       <c r="C22" s="12">
         <v>4</v>
@@ -1421,7 +1418,7 @@
       </c>
       <c r="F22" s="12">
         <f>E22*$C$30</f>
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -1446,10 +1443,10 @@
         <v>16</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D23" s="6">
         <f>2+1</f>
@@ -1457,11 +1454,11 @@
       </c>
       <c r="E23" s="6">
         <f t="shared" ref="E23:E24" si="3">SUM(C23:D23)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F23" s="6">
         <f>E23*$C$30</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -1486,7 +1483,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="6">
         <v>1</v>
@@ -1500,7 +1497,7 @@
       </c>
       <c r="F24" s="6">
         <f>E24*$C$30</f>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -1525,7 +1522,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="10">
         <f>SUM(C26:C28)</f>
@@ -1541,7 +1538,7 @@
       </c>
       <c r="F25" s="10">
         <f>SUM(F26:F28)</f>
-        <v>900</v>
+        <v>2250</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -1566,7 +1563,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="6">
         <v>7.5</v>
@@ -1580,7 +1577,7 @@
       </c>
       <c r="F26" s="6">
         <f>E26*$C$30</f>
-        <v>210</v>
+        <v>525</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -1605,7 +1602,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="6">
         <v>9</v>
@@ -1619,7 +1616,7 @@
       </c>
       <c r="F27" s="6">
         <f>E27*$C$30</f>
-        <v>280</v>
+        <v>700</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -1644,7 +1641,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="6">
         <v>11.5</v>
@@ -1659,7 +1656,7 @@
       </c>
       <c r="F28" s="6">
         <f>E28*$C$30</f>
-        <v>410</v>
+        <v>1025</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -1708,11 +1705,11 @@
       <c r="B30" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>36</v>
+      <c r="C30" s="6">
+        <v>50</v>
+      </c>
+      <c r="D30" s="6">
+        <v>50</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
